--- a/Movies/MovieList.xlsx
+++ b/Movies/MovieList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Union\Media Reviews\mediaReviewTool\Movies\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{ED29113B-11E4-4A31-944E-ADEF4EA3D904}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{345EB07D-22F2-4418-94AC-A519B0FBF65F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="15264" yWindow="0" windowWidth="15552" windowHeight="16656" xr2:uid="{9A531105-1FA2-4104-A767-BF93FB9959A9}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="888" uniqueCount="643">
   <si>
     <t>The Godfather</t>
   </si>
@@ -951,14 +951,1082 @@
   </si>
   <si>
     <t>Genre</t>
+  </si>
+  <si>
+    <t>Oppenheimer</t>
+  </si>
+  <si>
+    <t>Nolan’s atomic epic — cerebral, explosive, and Oscar-dominant.</t>
+  </si>
+  <si>
+    <t>Everything Everywhere All at Once</t>
+  </si>
+  <si>
+    <t>Absurdist multiverse chaos with real emotional weight.</t>
+  </si>
+  <si>
+    <t>Genre-bending, class-smashing Korean masterpiece.</t>
+  </si>
+  <si>
+    <t>Dune: Part One</t>
+  </si>
+  <si>
+    <t>Epic scale sci-fi done right. World-building with gravitas.</t>
+  </si>
+  <si>
+    <t>Spider-Man: No Way Home</t>
+  </si>
+  <si>
+    <t>Multiverse fan service that still manages heart.</t>
+  </si>
+  <si>
+    <t>Action / Superhero</t>
+  </si>
+  <si>
+    <t>Barbie</t>
+  </si>
+  <si>
+    <t>Subversive, neon-soaked feminist blockbuster.</t>
+  </si>
+  <si>
+    <t>Top Gun: Maverick</t>
+  </si>
+  <si>
+    <t>Nostalgia done right. Actually better than it had any right to be.</t>
+  </si>
+  <si>
+    <t>Avengers: Endgame</t>
+  </si>
+  <si>
+    <t>The end of an era. Maxed-out fan payoff and box office domination.</t>
+  </si>
+  <si>
+    <t>Joker</t>
+  </si>
+  <si>
+    <t>Taxi Driver in clown paint. Divisive, dark, and a cultural lightning rod.</t>
+  </si>
+  <si>
+    <t>Get Out</t>
+  </si>
+  <si>
+    <t>Genre-defining social thriller that sparked conversation everywhere.</t>
+  </si>
+  <si>
+    <t>La La Land</t>
+  </si>
+  <si>
+    <t>Musical love letter to dreamers — bittersweet and vibrant.</t>
+  </si>
+  <si>
+    <t>Musical / Romance</t>
+  </si>
+  <si>
+    <t>Mad Max: Fury Road</t>
+  </si>
+  <si>
+    <t>Pure visual adrenaline. Practical effects god-tier.</t>
+  </si>
+  <si>
+    <t>Action / Adventure</t>
+  </si>
+  <si>
+    <t>Interstellar</t>
+  </si>
+  <si>
+    <t>Love, time, and space folded into Nolan's most emotional trip.</t>
+  </si>
+  <si>
+    <t>AI romance that's as intimate as it is futuristic.</t>
+  </si>
+  <si>
+    <t>The origin story of Zuckerberg, told like a Shakespearean legal thriller.</t>
+  </si>
+  <si>
+    <t>WWI shot to look like a single take. Immersive and masterfully tense.</t>
+  </si>
+  <si>
+    <t>The Batman</t>
+  </si>
+  <si>
+    <t>Noir-style reboot with brooding intensity.</t>
+  </si>
+  <si>
+    <t>Superhero / Crime</t>
+  </si>
+  <si>
+    <t>DiCaprio crawls through hell for that Oscar. Visceral and brutal.</t>
+  </si>
+  <si>
+    <t>Knives Out</t>
+  </si>
+  <si>
+    <t>Whodunnit meets rich people takedown. Clever and endlessly rewatchable.</t>
+  </si>
+  <si>
+    <t>Mystery / Comedy</t>
+  </si>
+  <si>
+    <t>Bohemian Rhapsody</t>
+  </si>
+  <si>
+    <t>Freddie Mercury biopic that rocked arenas and award shows.</t>
+  </si>
+  <si>
+    <t>Biography / Music</t>
+  </si>
+  <si>
+    <t>RRR</t>
+  </si>
+  <si>
+    <t>Max-energy Telugu epic. Friendship, fire, dance, and vengeance.</t>
+  </si>
+  <si>
+    <t>The Irishman</t>
+  </si>
+  <si>
+    <t>Scorsese’s meditative, digital-de-aged gangster elegy.</t>
+  </si>
+  <si>
+    <t>Roma</t>
+  </si>
+  <si>
+    <t>Intimate black-and-white masterpiece from Cuarón.</t>
+  </si>
+  <si>
+    <t>Uncut Gems</t>
+  </si>
+  <si>
+    <t>Anxiety in cinematic form. Sandler breaks the mold.</t>
+  </si>
+  <si>
+    <t>The Whale</t>
+  </si>
+  <si>
+    <t>Fraser’s comeback in a raw, intimate character study.</t>
+  </si>
+  <si>
+    <t>Palm Springs</t>
+  </si>
+  <si>
+    <t>Time-loop rom-com that’s smart, funny, and surprisingly deep.</t>
+  </si>
+  <si>
+    <t>Comedy / Sci-Fi</t>
+  </si>
+  <si>
+    <t>Petty feuds and existential dread on a lonely Irish island.</t>
+  </si>
+  <si>
+    <t>Sound of Metal</t>
+  </si>
+  <si>
+    <t>A drummer losing his hearing, gaining perspective. Tough and moving.</t>
+  </si>
+  <si>
+    <t>Marriage Story</t>
+  </si>
+  <si>
+    <t>Brutal, honest portrait of love turned courtroom war.</t>
+  </si>
+  <si>
+    <t>The Trial of the Chicago 7</t>
+  </si>
+  <si>
+    <t>Sorkin dialogue meets real political fire.</t>
+  </si>
+  <si>
+    <t>A Star Is Born</t>
+  </si>
+  <si>
+    <t>Pop star chemistry meets tragic romance. Gaga stuns.</t>
+  </si>
+  <si>
+    <t>Tenet</t>
+  </si>
+  <si>
+    <t>Time inversion, big explosions, and dense Nolan logic.</t>
+  </si>
+  <si>
+    <t>Dune: Part Two</t>
+  </si>
+  <si>
+    <t>More political, more brutal, more sandworm. Epic continuation.</t>
+  </si>
+  <si>
+    <t>Soul</t>
+  </si>
+  <si>
+    <t>Pixar goes metaphysical. Jazzy and deep as hell.</t>
+  </si>
+  <si>
+    <t>Emotions personified in one of Pixar’s most emotionally intelligent stories.</t>
+  </si>
+  <si>
+    <t>Minari</t>
+  </si>
+  <si>
+    <t>Korean-American family struggles with roots and survival in Arkansas.</t>
+  </si>
+  <si>
+    <t>The Power of the Dog</t>
+  </si>
+  <si>
+    <t>Subtle, slow-burn psychological Western.</t>
+  </si>
+  <si>
+    <t>Drama / Western</t>
+  </si>
+  <si>
+    <t>Don't Look Up</t>
+  </si>
+  <si>
+    <t>Climate change satire disguised as a media circus. Divisive but loud.</t>
+  </si>
+  <si>
+    <t>TÁR</t>
+  </si>
+  <si>
+    <t>Cate Blanchett gives a tour de force as a spiraling maestro.</t>
+  </si>
+  <si>
+    <t>John Wick</t>
+  </si>
+  <si>
+    <t>Lean, stylish action reset the genre. Gun-fu perfection.</t>
+  </si>
+  <si>
+    <t>John Wick: Chapter 4</t>
+  </si>
+  <si>
+    <t>Bigger, bloodier, operatic and epic. The franchise apex.</t>
+  </si>
+  <si>
+    <t>The Lego Movie</t>
+  </si>
+  <si>
+    <t>Shouldn’t have worked, but it did. Smart, meta, and hilarious.</t>
+  </si>
+  <si>
+    <t>Encanto</t>
+  </si>
+  <si>
+    <t>The Madrigal family saga — catchy songs and colorful chaos.</t>
+  </si>
+  <si>
+    <t>Frozen</t>
+  </si>
+  <si>
+    <t>Disney musical phenomenon. “Let It Go” never left our heads.</t>
+  </si>
+  <si>
+    <t>Animation / Musical</t>
+  </si>
+  <si>
+    <t>The Hunger Games</t>
+  </si>
+  <si>
+    <t>YA dystopia done right. Solid worldbuilding and a star-making turn.</t>
+  </si>
+  <si>
+    <t>Action / Sci-Fi</t>
+  </si>
+  <si>
+    <t>Catching Fire</t>
+  </si>
+  <si>
+    <t>The rare sequel that improves on the original.</t>
+  </si>
+  <si>
+    <t>Contact with aliens as a metaphor for grief and time.</t>
+  </si>
+  <si>
+    <t>Drive</t>
+  </si>
+  <si>
+    <t>Ultra-stylized crime story. Minimal dialogue, maximal cool.</t>
+  </si>
+  <si>
+    <t>The Mitchells vs. The Machines</t>
+  </si>
+  <si>
+    <t>Gen Z tech apocalypse animated with chaotic charm.</t>
+  </si>
+  <si>
+    <t>Anderson’s most colorful and bittersweet gem.</t>
+  </si>
+  <si>
+    <t>Cuarón’s intimate masterpiece, shot in black and white with haunting beauty.</t>
+  </si>
+  <si>
+    <t>De Niro, Pacino, and Pesci in Scorsese’s gangster elegy.</t>
+  </si>
+  <si>
+    <t>Raw, painful look at love unraveling through divorce.</t>
+  </si>
+  <si>
+    <t>Subtle, psychological Western dissecting repression and masculinity.</t>
+  </si>
+  <si>
+    <t>Satirical end-of-world media circus. Bold, messy, and memeable.</t>
+  </si>
+  <si>
+    <t>Glass Onion</t>
+  </si>
+  <si>
+    <t>Stylish, meta murder mystery sequel that kept audiences guessing.</t>
+  </si>
+  <si>
+    <t>Extraction</t>
+  </si>
+  <si>
+    <t>Brutal, nonstop action with a single-shot sequence that’s pure chaos.</t>
+  </si>
+  <si>
+    <t>The Mitchells vs. the Machines</t>
+  </si>
+  <si>
+    <t>Family road trip meets AI apocalypse — smart, hilarious, and heartfelt.</t>
+  </si>
+  <si>
+    <t>All Quiet on the Western Front</t>
+  </si>
+  <si>
+    <t>Devastating WWI retelling with modern intensity and horror.</t>
+  </si>
+  <si>
+    <t>Beasts of No Nation</t>
+  </si>
+  <si>
+    <t>Visceral, heartbreaking child soldier story led by Idris Elba.</t>
+  </si>
+  <si>
+    <t>Klaus</t>
+  </si>
+  <si>
+    <t>Hand-drawn Christmas tale with stunning visuals and heart.</t>
+  </si>
+  <si>
+    <t>Ma Rainey’s Black Bottom</t>
+  </si>
+  <si>
+    <t>Tense, musical chamber piece powered by powerhouse performances.</t>
+  </si>
+  <si>
+    <t>Tick, Tick... Boom!</t>
+  </si>
+  <si>
+    <t>Musical biopic about art, urgency, and mortality. Garfield crushes it.</t>
+  </si>
+  <si>
+    <t>Musical / Biography</t>
+  </si>
+  <si>
+    <t>Sharp courtroom drama based on real protest chaos.</t>
+  </si>
+  <si>
+    <t>I Care a Lot</t>
+  </si>
+  <si>
+    <t>Pitch-black comedy about con artistry and capitalism.</t>
+  </si>
+  <si>
+    <t>Thriller / Comedy</t>
+  </si>
+  <si>
+    <t>Bird Box</t>
+  </si>
+  <si>
+    <t>Apocalyptic survival thriller that went mega-viral.</t>
+  </si>
+  <si>
+    <t>The Gray Man</t>
+  </si>
+  <si>
+    <t>Slick spy thriller — high-budget, high-octane, low-logic.</t>
+  </si>
+  <si>
+    <t>Red Notice</t>
+  </si>
+  <si>
+    <t>Star power and heist tropes in a globe-trotting crowd-pleaser.</t>
+  </si>
+  <si>
+    <t>Action / Comedy</t>
+  </si>
+  <si>
+    <t>The Sea Beast</t>
+  </si>
+  <si>
+    <t>Unexpectedly deep animated adventure about monsters and myths.</t>
+  </si>
+  <si>
+    <t>Animation / Adventure</t>
+  </si>
+  <si>
+    <t>To All the Boys I’ve Loved Before</t>
+  </si>
+  <si>
+    <t>Teen rom-com with heart and lasting influence.</t>
+  </si>
+  <si>
+    <t>Romance / Comedy</t>
+  </si>
+  <si>
+    <t>The Ballad of Buster Scruggs</t>
+  </si>
+  <si>
+    <t>Coen Bros’ Western anthology with songs, death, and moral whiplash.</t>
+  </si>
+  <si>
+    <t>Western / Anthology</t>
+  </si>
+  <si>
+    <t>The Guilty</t>
+  </si>
+  <si>
+    <t>One-man thriller about crisis, guilt, and tension on the line.</t>
+  </si>
+  <si>
+    <t>The Hand of God</t>
+  </si>
+  <si>
+    <t>Nostalgic, semi-autobiographical story of loss and cinema.</t>
+  </si>
+  <si>
+    <t>The Adam Project</t>
+  </si>
+  <si>
+    <t>Light, time-travel adventure with Reynolds’ signature snark.</t>
+  </si>
+  <si>
+    <t>You People</t>
+  </si>
+  <si>
+    <t>Culture clash meets rom-com with a sharp, often uncomfortable bite.</t>
+  </si>
+  <si>
+    <t>Star-crossed romance + historical disaster = box office legend.</t>
+  </si>
+  <si>
+    <t>Avatar</t>
+  </si>
+  <si>
+    <t>Blue aliens, 3D revolution, and the highest-grossing film (again).</t>
+  </si>
+  <si>
+    <t>The peak of the MCU. Fan service, spectacle, and a billion memes.</t>
+  </si>
+  <si>
+    <t>The one that started it all. The blueprint for modern blockbusters.</t>
+  </si>
+  <si>
+    <t>Sci-Fi / Fantasy</t>
+  </si>
+  <si>
+    <t>Harry Potter and the Sorcerer's Stone</t>
+  </si>
+  <si>
+    <t>The beginning of an era. Magic, kids, and worldwide obsession.</t>
+  </si>
+  <si>
+    <t>Animated perfection with Shakespearean drama and iconic songs.</t>
+  </si>
+  <si>
+    <t>Disney's icy juggernaut. “Let It Go” ruled pop culture for years.</t>
+  </si>
+  <si>
+    <t>Jurassic Park</t>
+  </si>
+  <si>
+    <t>Dinosaurs done right. Spiel-bergasm of science, suspense, and wonder.</t>
+  </si>
+  <si>
+    <t>Redefined superhero movies. Heath Ledger’s Joker is still unmatched.</t>
+  </si>
+  <si>
+    <t>Forrest Gump</t>
+  </si>
+  <si>
+    <t>“Life is like a box of chocolates” — Oscar-winner and pop culture staple.</t>
+  </si>
+  <si>
+    <t>MCU meets multiverse nostalgia. Broke the internet — and box office.</t>
+  </si>
+  <si>
+    <t>Superhero / Action</t>
+  </si>
+  <si>
+    <t>The Lord of the Rings: Return of the King</t>
+  </si>
+  <si>
+    <t>Epic fantasy with 11 Oscars to prove it.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Legacy sequel that </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>actually</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> elevated the original.</t>
+    </r>
+  </si>
+  <si>
+    <t>A feminist, fluorescent surprise hit. Dominated the cultural conversation.</t>
+  </si>
+  <si>
+    <t>Minions</t>
+  </si>
+  <si>
+    <t>Yellow gibberish gremlins that somehow made billions.</t>
+  </si>
+  <si>
+    <t>Beauty and the Beast (animated)</t>
+  </si>
+  <si>
+    <t>Disney Renaissance classic. First animated Best Picture nominee.</t>
+  </si>
+  <si>
+    <t>Animation / Romance</t>
+  </si>
+  <si>
+    <t>Shrek</t>
+  </si>
+  <si>
+    <t>Sarcastic, subversive, and still quotable as hell.</t>
+  </si>
+  <si>
+    <t>Bullet time. Philosophy. Trench coats. Still cool.</t>
+  </si>
+  <si>
+    <t>Black Panther</t>
+  </si>
+  <si>
+    <t>Culture-shifting Marvel moment. Representation finally front and center.</t>
+  </si>
+  <si>
+    <t>Inception</t>
+  </si>
+  <si>
+    <t>Dream within a dream within box office gold. Nolan flexes hard.</t>
+  </si>
+  <si>
+    <t>E.T. the Extra-Terrestrial</t>
+  </si>
+  <si>
+    <t>Spielberg’s heartfelt alien tale that crushed the ‘80s box office.</t>
+  </si>
+  <si>
+    <t>Sci-Fi / Family</t>
+  </si>
+  <si>
+    <t>The Avengers</t>
+  </si>
+  <si>
+    <t>MCU’s first mega-crossover. Opened the floodgates.</t>
+  </si>
+  <si>
+    <t>The Super Mario Bros. Movie</t>
+  </si>
+  <si>
+    <t>Animated crowd-pleaser that cashed in on nostalgia and family fun.</t>
+  </si>
+  <si>
+    <t>Despicable Me</t>
+  </si>
+  <si>
+    <t>Gru + minions = franchise juggernaut.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">YA dystopia with bite. Jennifer Lawrence became </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>the</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> star of a generation.</t>
+    </r>
+  </si>
+  <si>
+    <t>Jurassic World</t>
+  </si>
+  <si>
+    <t>Dinosaur chaos reignited with blockbuster thrills and nostalgia.</t>
+  </si>
+  <si>
+    <t>The Marvel superhero team-up that launched a billion-dollar franchise.</t>
+  </si>
+  <si>
+    <t>Frozen II</t>
+  </si>
+  <si>
+    <t>The sequel that kept the icy magic alive and dominated the box office.</t>
+  </si>
+  <si>
+    <t>Beauty and the Beast (2017)</t>
+  </si>
+  <si>
+    <t>Live-action Disney remake that captured hearts globally.</t>
+  </si>
+  <si>
+    <t>Fantasy / Romance</t>
+  </si>
+  <si>
+    <t>Finding Nemo</t>
+  </si>
+  <si>
+    <t>Pixar’s underwater adventure that’s both heartwarming and hilarious.</t>
+  </si>
+  <si>
+    <t>The Lion King (2019)</t>
+  </si>
+  <si>
+    <t>CG remake of the beloved classic that broke streaming and box office records.</t>
+  </si>
+  <si>
+    <t>Harry Potter and the Deathly Hallows – Part 2</t>
+  </si>
+  <si>
+    <t>Epic finale to the wizarding saga with huge fanfare.</t>
+  </si>
+  <si>
+    <t>Marvel’s cultural milestone with global impact and style.</t>
+  </si>
+  <si>
+    <t>Star Wars: The Force Awakens</t>
+  </si>
+  <si>
+    <t>Revival of the saga with massive fan hype and box office records.</t>
+  </si>
+  <si>
+    <t>The Incredibles</t>
+  </si>
+  <si>
+    <t>Family of superheroes saving the day with Pixar’s signature style.</t>
+  </si>
+  <si>
+    <t>Animation / Action</t>
+  </si>
+  <si>
+    <t>Little yellow chaos-makers that dominated families and merchandise.</t>
+  </si>
+  <si>
+    <t>Toy Story 3</t>
+  </si>
+  <si>
+    <t>Emotional Pixar chapter closing a beloved trilogy.</t>
+  </si>
+  <si>
+    <t>Wonder Woman</t>
+  </si>
+  <si>
+    <t>Breakthrough female superhero movie that energized DC fans.</t>
+  </si>
+  <si>
+    <t>Captain Marvel</t>
+  </si>
+  <si>
+    <t>MCU’s cosmic powerhouse introduced with huge hype.</t>
+  </si>
+  <si>
+    <t>Spider-Man: Far From Home</t>
+  </si>
+  <si>
+    <t>Post-Endgame Spidey’s globe-trotting blockbuster.</t>
+  </si>
+  <si>
+    <t>Original icy smash hit that still runs the karaoke playlists.</t>
+  </si>
+  <si>
+    <t>Despicable Me 2</t>
+  </si>
+  <si>
+    <t>Follow-up to the minion madness that kept the franchise booming.</t>
+  </si>
+  <si>
+    <t>Finding Dory</t>
+  </si>
+  <si>
+    <t>Heartfelt sequel about memory and family underwater.</t>
+  </si>
+  <si>
+    <t>Avengers: Infinity War</t>
+  </si>
+  <si>
+    <t>The MCU’s high-stakes event movie before Endgame.</t>
+  </si>
+  <si>
+    <t>Pirates of the Caribbean: The Curse of the Black Pearl</t>
+  </si>
+  <si>
+    <t>Swashbuckling fun with Johnny Depp’s iconic Jack Sparrow.</t>
+  </si>
+  <si>
+    <t>Adventure / Fantasy</t>
+  </si>
+  <si>
+    <t>Shrek 2</t>
+  </si>
+  <si>
+    <t>Irreverent fairy tale sequel that was even bigger than the original.</t>
+  </si>
+  <si>
+    <t>The Twilight Saga: Breaking Dawn – Part 2</t>
+  </si>
+  <si>
+    <t>The vampire franchise finale that had millions hooked.</t>
+  </si>
+  <si>
+    <t>The Hunger Games: Catching Fire</t>
+  </si>
+  <si>
+    <t>Dystopian thrills with Jennifer Lawrence leading the charge.</t>
+  </si>
+  <si>
+    <t>Aquaman</t>
+  </si>
+  <si>
+    <t>Underwater superhero spectacle with Jason Momoa’s charm.</t>
+  </si>
+  <si>
+    <t>Action / Fantasy</t>
+  </si>
+  <si>
+    <t>The Dark Knight Rises</t>
+  </si>
+  <si>
+    <t>Nolan’s Batman trilogy finale packed with action and emotion.</t>
+  </si>
+  <si>
+    <t>Coco</t>
+  </si>
+  <si>
+    <t>Pixar’s vibrant Day of the Dead story with unforgettable music.</t>
+  </si>
+  <si>
+    <t>Moana</t>
+  </si>
+  <si>
+    <t>Disney’s ocean adventure with a fierce heroine and catchy tunes.</t>
+  </si>
+  <si>
+    <t>Transformers</t>
+  </si>
+  <si>
+    <t>Michael Bay’s explosive robot franchise kickoff.</t>
+  </si>
+  <si>
+    <t>Iron Man</t>
+  </si>
+  <si>
+    <t>The film that launched the MCU into pop culture dominance.</t>
+  </si>
+  <si>
+    <t>The Secret Life of Pets</t>
+  </si>
+  <si>
+    <t>Comedy about what pets do when we’re away — family-friendly gold.</t>
+  </si>
+  <si>
+    <t>Trolls</t>
+  </si>
+  <si>
+    <t>Colorful, musical animated hit with a huge soundtrack.</t>
+  </si>
+  <si>
+    <t>Deadpool</t>
+  </si>
+  <si>
+    <t>R-rated superhero comedy that changed the game with its snark.</t>
+  </si>
+  <si>
+    <t>Venom</t>
+  </si>
+  <si>
+    <t>Antihero movie that attracted big audiences despite mixed reviews.</t>
+  </si>
+  <si>
+    <t>The Jungle Book (2016)</t>
+  </si>
+  <si>
+    <t>Stunning live-action/CGI hybrid remake of the classic Disney tale.</t>
+  </si>
+  <si>
+    <t>Adventure / Family</t>
+  </si>
+  <si>
+    <t>Star Wars: Rogue One</t>
+  </si>
+  <si>
+    <t>Gritty, fan-favorite standalone Star Wars story.</t>
+  </si>
+  <si>
+    <t>Jumanji: Welcome to the Jungle</t>
+  </si>
+  <si>
+    <t>Unexpected hit sequel reboot with Dwayne Johnson.</t>
+  </si>
+  <si>
+    <t>Pixar’s brilliant dive into emotions and childhood.</t>
+  </si>
+  <si>
+    <t>Spider-Man: Homecoming</t>
+  </si>
+  <si>
+    <t>Fresh reboot of Spider-Man in the MCU with Tom Holland’s charm.</t>
+  </si>
+  <si>
+    <t>Wonder</t>
+  </si>
+  <si>
+    <t>Emotional family drama that hit all the right notes.</t>
+  </si>
+  <si>
+    <t>Drama / Family</t>
+  </si>
+  <si>
+    <t>Another mention because it was THAT good and popular worldwide.</t>
+  </si>
+  <si>
+    <t>Zootopia</t>
+  </si>
+  <si>
+    <t>Disney’s smart, socially aware animal city caper.</t>
+  </si>
+  <si>
+    <t>Animation / Mystery</t>
+  </si>
+  <si>
+    <t>Surprising hit full of clever humor and meta jokes.</t>
+  </si>
+  <si>
+    <t>Aladdin (2019)</t>
+  </si>
+  <si>
+    <t>Live-action remake with Will Smith’s iconic Genie.</t>
+  </si>
+  <si>
+    <t>Fantasy / Musical</t>
+  </si>
+  <si>
+    <t>Maleficent</t>
+  </si>
+  <si>
+    <t>Dark fairy tale retelling starring Angelina Jolie.</t>
+  </si>
+  <si>
+    <t>Kung Fu Panda</t>
+  </si>
+  <si>
+    <t>Animated martial arts comedy with heart and style.</t>
+  </si>
+  <si>
+    <t>The original minion introduction and family favorite.</t>
+  </si>
+  <si>
+    <t>Gravity</t>
+  </si>
+  <si>
+    <t>Sci-fi thriller that made space terrifying and beautiful.</t>
+  </si>
+  <si>
+    <t>Jazz-infused modern musical hit with Oscar buzz.</t>
+  </si>
+  <si>
+    <t>The Martian</t>
+  </si>
+  <si>
+    <t>Sci-fi survival story with a comedic and smart edge.</t>
+  </si>
+  <si>
+    <t>Captain America: Civil War</t>
+  </si>
+  <si>
+    <t>MCU’s civil war that divided superheroes and audiences.</t>
+  </si>
+  <si>
+    <t>Rogue One</t>
+  </si>
+  <si>
+    <t>Star Wars spinoff with a darker, more mature tone.</t>
+  </si>
+  <si>
+    <t>Pirates of the Caribbean: Dead Man’s Chest</t>
+  </si>
+  <si>
+    <t>Follow-up with more action and Jack Sparrow antics.</t>
+  </si>
+  <si>
+    <t>Batman v Superman: Dawn of Justice</t>
+  </si>
+  <si>
+    <t>DC’s biggest superhero showdown with massive hype.</t>
+  </si>
+  <si>
+    <t>Guardians of the Galaxy</t>
+  </si>
+  <si>
+    <t>Space crew with humor, music, and heart that kicked off a new MCU vibe.</t>
+  </si>
+  <si>
+    <t>The Twilight Saga: New Moon</t>
+  </si>
+  <si>
+    <t>Vampire teen romance fever that had millions hooked.</t>
+  </si>
+  <si>
+    <t>How to Train Your Dragon</t>
+  </si>
+  <si>
+    <t>Dreamy animation about friendship and dragons.</t>
+  </si>
+  <si>
+    <t>The Lion King (1994)</t>
+  </si>
+  <si>
+    <t>Disney’s legendary animated epic with unforgettable songs.</t>
+  </si>
+  <si>
+    <t>Pixar’s aquatic classic that touched millions.</t>
+  </si>
+  <si>
+    <t>Pixar’s emotional masterpiece exploring a kid’s mind.</t>
+  </si>
+  <si>
+    <t>Batman Begins</t>
+  </si>
+  <si>
+    <t>Nolan reboot that revived Batman with grit and style.</t>
+  </si>
+  <si>
+    <t>Still insanely popular for the songs and the story.</t>
+  </si>
+  <si>
+    <t>The original Pixar feature that started the animation revolution.</t>
+  </si>
+  <si>
+    <t>Despicable Me 3</t>
+  </si>
+  <si>
+    <t>Continued minion and Gru adventures, big audience draw.</t>
+  </si>
+  <si>
+    <t>YA dystopian breakout starring Jennifer Lawrence.</t>
+  </si>
+  <si>
+    <t>Spider-Man: Into the Spider-Verse</t>
+  </si>
+  <si>
+    <t>Animated Spider-Man multiverse masterpiece.</t>
+  </si>
+  <si>
+    <t>Captain America: The Winter Soldier</t>
+  </si>
+  <si>
+    <t>Political thriller-style superhero action.</t>
+  </si>
+  <si>
+    <t>Black Widow</t>
+  </si>
+  <si>
+    <t>Natasha Romanoff’s MCU solo outing.</t>
+  </si>
+  <si>
+    <t>Incredibles 2</t>
+  </si>
+  <si>
+    <t>Long-awaited sequel to the beloved Pixar family superhero film.</t>
+  </si>
+  <si>
+    <t>Thor: Ragnarok</t>
+  </si>
+  <si>
+    <t>Taika Waititi’s hilarious, colorful MCU refresh.</t>
+  </si>
+  <si>
+    <t>Wonder Woman 1984</t>
+  </si>
+  <si>
+    <t>Sequel to the breakout DC hit with mixed reception but big views.</t>
+  </si>
+  <si>
+    <t>Doctor Strange</t>
+  </si>
+  <si>
+    <t>MCU’s mystical arts introduction with eye-popping visuals.</t>
+  </si>
+  <si>
+    <t>The Jungle Book (1967)</t>
+  </si>
+  <si>
+    <t>Disney classic that started many childhoods with music and fun.</t>
+  </si>
+  <si>
+    <t>The Avengers: Age of Ultron</t>
+  </si>
+  <si>
+    <t>MCU sequel with huge scope and big stakes.</t>
+  </si>
+  <si>
+    <t>The Twilight Saga: Eclipse</t>
+  </si>
+  <si>
+    <t>Another vampire teen romance blockbuster.</t>
+  </si>
+  <si>
+    <t>Beauty and the Beast (1991)</t>
+  </si>
+  <si>
+    <t>The original Disney animated classic that’s timeless.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
@@ -992,14 +2060,28 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1329,10 +2411,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8C6EC87-947C-41FF-A42B-10B805E00B7A}">
-  <dimension ref="A1:E121"/>
+  <dimension ref="A1:E296"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="B124" sqref="B124"/>
+    <sheetView tabSelected="1" topLeftCell="A261" workbookViewId="0">
+      <selection activeCell="B298" sqref="B298"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3401,7 +4483,2986 @@
         <v>299</v>
       </c>
     </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A122" s="1">
+        <v>122</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="D122" s="2">
+        <v>2023</v>
+      </c>
+      <c r="E122" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A123" s="1">
+        <v>123</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="D123" s="2">
+        <v>2022</v>
+      </c>
+      <c r="E123" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A124" s="1">
+        <v>124</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="D124" s="2">
+        <v>2019</v>
+      </c>
+      <c r="E124" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A125" s="1">
+        <v>125</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="D125" s="2">
+        <v>2021</v>
+      </c>
+      <c r="E125" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A126" s="1">
+        <v>126</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="D126" s="2">
+        <v>2021</v>
+      </c>
+      <c r="E126" s="2" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A127" s="1">
+        <v>127</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="D127" s="2">
+        <v>2023</v>
+      </c>
+      <c r="E127" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A128" s="1">
+        <v>128</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="D128" s="2">
+        <v>2022</v>
+      </c>
+      <c r="E128" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A129" s="1">
+        <v>129</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="D129" s="2">
+        <v>2019</v>
+      </c>
+      <c r="E129" s="2" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A130" s="1">
+        <v>130</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="D130" s="2">
+        <v>2019</v>
+      </c>
+      <c r="E130" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A131" s="1">
+        <v>131</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="D131" s="2">
+        <v>2017</v>
+      </c>
+      <c r="E131" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A132" s="1">
+        <v>132</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="D132" s="2">
+        <v>2016</v>
+      </c>
+      <c r="E132" s="2" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A133" s="1">
+        <v>133</v>
+      </c>
+      <c r="B133" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="D133" s="2">
+        <v>2015</v>
+      </c>
+      <c r="E133" s="2" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A134" s="1">
+        <v>134</v>
+      </c>
+      <c r="B134" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="D134" s="2">
+        <v>2014</v>
+      </c>
+      <c r="E134" s="2" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A135" s="1">
+        <v>135</v>
+      </c>
+      <c r="B135" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C135" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="D135" s="2">
+        <v>2013</v>
+      </c>
+      <c r="E135" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A136" s="1">
+        <v>136</v>
+      </c>
+      <c r="B136" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C136" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="D136" s="2">
+        <v>2010</v>
+      </c>
+      <c r="E136" s="2" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A137" s="1">
+        <v>137</v>
+      </c>
+      <c r="B137" s="2">
+        <v>1917</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="D137" s="2">
+        <v>2019</v>
+      </c>
+      <c r="E137" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A138" s="1">
+        <v>138</v>
+      </c>
+      <c r="B138" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="D138" s="2">
+        <v>2022</v>
+      </c>
+      <c r="E138" s="2" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A139" s="1">
+        <v>139</v>
+      </c>
+      <c r="B139" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="C139" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="D139" s="2">
+        <v>2015</v>
+      </c>
+      <c r="E139" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A140" s="1">
+        <v>140</v>
+      </c>
+      <c r="B140" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="C140" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="D140" s="2">
+        <v>2019</v>
+      </c>
+      <c r="E140" s="2" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A141" s="1">
+        <v>141</v>
+      </c>
+      <c r="B141" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="C141" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="D141" s="2">
+        <v>2018</v>
+      </c>
+      <c r="E141" s="2" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A142" s="1">
+        <v>142</v>
+      </c>
+      <c r="B142" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="C142" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="D142" s="2">
+        <v>2022</v>
+      </c>
+      <c r="E142" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A143" s="1">
+        <v>143</v>
+      </c>
+      <c r="B143" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="C143" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="D143" s="2">
+        <v>2019</v>
+      </c>
+      <c r="E143" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A144" s="1">
+        <v>144</v>
+      </c>
+      <c r="B144" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="C144" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="D144" s="2">
+        <v>2018</v>
+      </c>
+      <c r="E144" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A145" s="1">
+        <v>145</v>
+      </c>
+      <c r="B145" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="C145" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="D145" s="2">
+        <v>2019</v>
+      </c>
+      <c r="E145" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A146" s="1">
+        <v>146</v>
+      </c>
+      <c r="B146" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="C146" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="D146" s="2">
+        <v>2022</v>
+      </c>
+      <c r="E146" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A147" s="1">
+        <v>147</v>
+      </c>
+      <c r="B147" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="C147" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="D147" s="2">
+        <v>2020</v>
+      </c>
+      <c r="E147" s="2" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A148" s="1">
+        <v>148</v>
+      </c>
+      <c r="B148" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="C148" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="D148" s="2">
+        <v>2022</v>
+      </c>
+      <c r="E148" s="2" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A149" s="1">
+        <v>149</v>
+      </c>
+      <c r="B149" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="C149" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="D149" s="2">
+        <v>2019</v>
+      </c>
+      <c r="E149" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A150" s="1">
+        <v>150</v>
+      </c>
+      <c r="B150" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="C150" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="D150" s="2">
+        <v>2019</v>
+      </c>
+      <c r="E150" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A151" s="1">
+        <v>151</v>
+      </c>
+      <c r="B151" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="C151" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="D151" s="2">
+        <v>2020</v>
+      </c>
+      <c r="E151" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A152" s="1">
+        <v>152</v>
+      </c>
+      <c r="B152" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="C152" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="D152" s="2">
+        <v>2018</v>
+      </c>
+      <c r="E152" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A153" s="1">
+        <v>153</v>
+      </c>
+      <c r="B153" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="C153" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="D153" s="2">
+        <v>2020</v>
+      </c>
+      <c r="E153" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A154" s="1">
+        <v>154</v>
+      </c>
+      <c r="B154" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="C154" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="D154" s="2">
+        <v>2024</v>
+      </c>
+      <c r="E154" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A155" s="1">
+        <v>155</v>
+      </c>
+      <c r="B155" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="C155" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="D155" s="2">
+        <v>2020</v>
+      </c>
+      <c r="E155" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A156" s="1">
+        <v>156</v>
+      </c>
+      <c r="B156" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C156" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="D156" s="2">
+        <v>2015</v>
+      </c>
+      <c r="E156" s="2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A157" s="1">
+        <v>157</v>
+      </c>
+      <c r="B157" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="C157" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="D157" s="2">
+        <v>2020</v>
+      </c>
+      <c r="E157" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A158" s="1">
+        <v>158</v>
+      </c>
+      <c r="B158" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="C158" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="D158" s="2">
+        <v>2021</v>
+      </c>
+      <c r="E158" s="2" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A159" s="1">
+        <v>159</v>
+      </c>
+      <c r="B159" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="C159" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="D159" s="2">
+        <v>2021</v>
+      </c>
+      <c r="E159" s="2" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A160" s="1">
+        <v>160</v>
+      </c>
+      <c r="B160" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="C160" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="D160" s="2">
+        <v>2022</v>
+      </c>
+      <c r="E160" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A161" s="1">
+        <v>161</v>
+      </c>
+      <c r="B161" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="C161" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="D161" s="2">
+        <v>2014</v>
+      </c>
+      <c r="E161" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A162" s="1">
+        <v>162</v>
+      </c>
+      <c r="B162" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="C162" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="D162" s="2">
+        <v>2023</v>
+      </c>
+      <c r="E162" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A163" s="1">
+        <v>163</v>
+      </c>
+      <c r="B163" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="C163" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="D163" s="2">
+        <v>2014</v>
+      </c>
+      <c r="E163" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A164" s="1">
+        <v>164</v>
+      </c>
+      <c r="B164" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="C164" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="D164" s="2">
+        <v>2021</v>
+      </c>
+      <c r="E164" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A165" s="1">
+        <v>165</v>
+      </c>
+      <c r="B165" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="C165" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="D165" s="2">
+        <v>2013</v>
+      </c>
+      <c r="E165" s="2" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A166" s="1">
+        <v>166</v>
+      </c>
+      <c r="B166" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="C166" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="D166" s="2">
+        <v>2012</v>
+      </c>
+      <c r="E166" s="2" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A167" s="1">
+        <v>167</v>
+      </c>
+      <c r="B167" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="C167" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="D167" s="2">
+        <v>2013</v>
+      </c>
+      <c r="E167" s="2" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A168" s="1">
+        <v>168</v>
+      </c>
+      <c r="B168" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="C168" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="D168" s="2">
+        <v>2016</v>
+      </c>
+      <c r="E168" s="2" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A169" s="1">
+        <v>169</v>
+      </c>
+      <c r="B169" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="C169" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="D169" s="2">
+        <v>2011</v>
+      </c>
+      <c r="E169" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A170" s="1">
+        <v>170</v>
+      </c>
+      <c r="B170" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="C170" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="D170" s="2">
+        <v>2021</v>
+      </c>
+      <c r="E170" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A171" s="1">
+        <v>171</v>
+      </c>
+      <c r="B171" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C171" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="D171" s="2">
+        <v>2014</v>
+      </c>
+      <c r="E171" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A172" s="1">
+        <v>172</v>
+      </c>
+      <c r="B172" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="C172" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="D172" s="2">
+        <v>2018</v>
+      </c>
+      <c r="E172" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A173" s="1">
+        <v>173</v>
+      </c>
+      <c r="B173" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="C173" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="D173" s="2">
+        <v>2019</v>
+      </c>
+      <c r="E173" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A174" s="1">
+        <v>174</v>
+      </c>
+      <c r="B174" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="C174" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="D174" s="2">
+        <v>2019</v>
+      </c>
+      <c r="E174" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A175" s="1">
+        <v>175</v>
+      </c>
+      <c r="B175" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="C175" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="D175" s="2">
+        <v>2021</v>
+      </c>
+      <c r="E175" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A176" s="1">
+        <v>176</v>
+      </c>
+      <c r="B176" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="C176" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="D176" s="2">
+        <v>2021</v>
+      </c>
+      <c r="E176" s="2" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A177" s="1">
+        <v>177</v>
+      </c>
+      <c r="B177" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="C177" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="D177" s="2">
+        <v>2022</v>
+      </c>
+      <c r="E177" s="2" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A178" s="1">
+        <v>178</v>
+      </c>
+      <c r="B178" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="C178" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="D178" s="2">
+        <v>2020</v>
+      </c>
+      <c r="E178" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A179" s="1">
+        <v>179</v>
+      </c>
+      <c r="B179" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="C179" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="D179" s="2">
+        <v>2021</v>
+      </c>
+      <c r="E179" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A180" s="1">
+        <v>180</v>
+      </c>
+      <c r="B180" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="C180" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="D180" s="2">
+        <v>2022</v>
+      </c>
+      <c r="E180" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A181" s="1">
+        <v>181</v>
+      </c>
+      <c r="B181" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="C181" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="D181" s="2">
+        <v>2015</v>
+      </c>
+      <c r="E181" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A182" s="1">
+        <v>182</v>
+      </c>
+      <c r="B182" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="C182" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="D182" s="2">
+        <v>2019</v>
+      </c>
+      <c r="E182" s="2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A183" s="1">
+        <v>183</v>
+      </c>
+      <c r="B183" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="C183" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="D183" s="2">
+        <v>2020</v>
+      </c>
+      <c r="E183" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A184" s="1">
+        <v>184</v>
+      </c>
+      <c r="B184" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="C184" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="D184" s="2">
+        <v>2021</v>
+      </c>
+      <c r="E184" s="2" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A185" s="1">
+        <v>185</v>
+      </c>
+      <c r="B185" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="C185" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="D185" s="2">
+        <v>2020</v>
+      </c>
+      <c r="E185" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A186" s="1">
+        <v>186</v>
+      </c>
+      <c r="B186" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="C186" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="D186" s="2">
+        <v>2020</v>
+      </c>
+      <c r="E186" s="2" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A187" s="1">
+        <v>187</v>
+      </c>
+      <c r="B187" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="C187" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="D187" s="2">
+        <v>2018</v>
+      </c>
+      <c r="E187" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A188" s="1">
+        <v>188</v>
+      </c>
+      <c r="B188" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="C188" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="D188" s="2">
+        <v>2022</v>
+      </c>
+      <c r="E188" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A189" s="1">
+        <v>189</v>
+      </c>
+      <c r="B189" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="C189" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="D189" s="2">
+        <v>2021</v>
+      </c>
+      <c r="E189" s="2" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A190" s="1">
+        <v>190</v>
+      </c>
+      <c r="B190" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="C190" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="D190" s="2">
+        <v>2022</v>
+      </c>
+      <c r="E190" s="2" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A191" s="1">
+        <v>191</v>
+      </c>
+      <c r="B191" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="C191" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="D191" s="2">
+        <v>2018</v>
+      </c>
+      <c r="E191" s="2" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A192" s="1">
+        <v>192</v>
+      </c>
+      <c r="B192" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="C192" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="D192" s="2">
+        <v>2018</v>
+      </c>
+      <c r="E192" s="2" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A193" s="1">
+        <v>193</v>
+      </c>
+      <c r="B193" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="C193" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="D193" s="2">
+        <v>2021</v>
+      </c>
+      <c r="E193" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A194" s="1">
+        <v>194</v>
+      </c>
+      <c r="B194" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="C194" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="D194" s="2">
+        <v>2021</v>
+      </c>
+      <c r="E194" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A195" s="1">
+        <v>195</v>
+      </c>
+      <c r="B195" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="C195" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="D195" s="2">
+        <v>2022</v>
+      </c>
+      <c r="E195" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A196" s="1">
+        <v>196</v>
+      </c>
+      <c r="B196" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="C196" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="D196" s="2">
+        <v>2023</v>
+      </c>
+      <c r="E196" s="2" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A197" s="1">
+        <v>197</v>
+      </c>
+      <c r="B197" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C197" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="D197" s="2">
+        <v>1997</v>
+      </c>
+      <c r="E197" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A198" s="1">
+        <v>198</v>
+      </c>
+      <c r="B198" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="C198" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="D198" s="2">
+        <v>2009</v>
+      </c>
+      <c r="E198" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A199" s="1">
+        <v>199</v>
+      </c>
+      <c r="B199" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="C199" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="D199" s="2">
+        <v>2019</v>
+      </c>
+      <c r="E199" s="2" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A200" s="1">
+        <v>200</v>
+      </c>
+      <c r="B200" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C200" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="D200" s="2">
+        <v>1977</v>
+      </c>
+      <c r="E200" s="2" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A201" s="1">
+        <v>201</v>
+      </c>
+      <c r="B201" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="C201" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="D201" s="2">
+        <v>2001</v>
+      </c>
+      <c r="E201" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A202" s="1">
+        <v>202</v>
+      </c>
+      <c r="B202" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C202" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="D202" s="2">
+        <v>1994</v>
+      </c>
+      <c r="E202" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A203" s="1">
+        <v>203</v>
+      </c>
+      <c r="B203" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="C203" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="D203" s="2">
+        <v>2013</v>
+      </c>
+      <c r="E203" s="2" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A204" s="1">
+        <v>204</v>
+      </c>
+      <c r="B204" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="C204" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="D204" s="2">
+        <v>1993</v>
+      </c>
+      <c r="E204" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A205" s="1">
+        <v>205</v>
+      </c>
+      <c r="B205" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C205" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="D205" s="2">
+        <v>2008</v>
+      </c>
+      <c r="E205" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A206" s="1">
+        <v>206</v>
+      </c>
+      <c r="B206" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="C206" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="D206" s="2">
+        <v>1994</v>
+      </c>
+      <c r="E206" s="2" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A207" s="1">
+        <v>207</v>
+      </c>
+      <c r="B207" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="C207" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="D207" s="2">
+        <v>2021</v>
+      </c>
+      <c r="E207" s="2" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A208" s="1">
+        <v>208</v>
+      </c>
+      <c r="B208" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="C208" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="D208" s="2">
+        <v>2003</v>
+      </c>
+      <c r="E208" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A209" s="1">
+        <v>209</v>
+      </c>
+      <c r="B209" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="C209" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="D209" s="2">
+        <v>2022</v>
+      </c>
+      <c r="E209" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A210" s="1">
+        <v>210</v>
+      </c>
+      <c r="B210" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="C210" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="D210" s="2">
+        <v>2023</v>
+      </c>
+      <c r="E210" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A211" s="1">
+        <v>211</v>
+      </c>
+      <c r="B211" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="C211" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="D211" s="2">
+        <v>2015</v>
+      </c>
+      <c r="E211" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A212" s="1">
+        <v>212</v>
+      </c>
+      <c r="B212" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="C212" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="D212" s="2">
+        <v>1991</v>
+      </c>
+      <c r="E212" s="2" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A213" s="1">
+        <v>213</v>
+      </c>
+      <c r="B213" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="C213" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="D213" s="2">
+        <v>2001</v>
+      </c>
+      <c r="E213" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A214" s="1">
+        <v>214</v>
+      </c>
+      <c r="B214" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C214" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="D214" s="2">
+        <v>1999</v>
+      </c>
+      <c r="E214" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A215" s="1">
+        <v>215</v>
+      </c>
+      <c r="B215" s="2" t="s">
+        <v>485</v>
+      </c>
+      <c r="C215" s="2" t="s">
+        <v>486</v>
+      </c>
+      <c r="D215" s="2">
+        <v>2018</v>
+      </c>
+      <c r="E215" s="2" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A216" s="1">
+        <v>216</v>
+      </c>
+      <c r="B216" s="2" t="s">
+        <v>487</v>
+      </c>
+      <c r="C216" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="D216" s="2">
+        <v>2010</v>
+      </c>
+      <c r="E216" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A217" s="1">
+        <v>217</v>
+      </c>
+      <c r="B217" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="C217" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="D217" s="2">
+        <v>1982</v>
+      </c>
+      <c r="E217" s="2" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A218" s="1">
+        <v>218</v>
+      </c>
+      <c r="B218" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="C218" s="2" t="s">
+        <v>493</v>
+      </c>
+      <c r="D218" s="2">
+        <v>2012</v>
+      </c>
+      <c r="E218" s="2" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A219" s="1">
+        <v>219</v>
+      </c>
+      <c r="B219" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="C219" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="D219" s="2">
+        <v>2023</v>
+      </c>
+      <c r="E219" s="2" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A220" s="1">
+        <v>220</v>
+      </c>
+      <c r="B220" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="C220" s="2" t="s">
+        <v>497</v>
+      </c>
+      <c r="D220" s="2">
+        <v>2010</v>
+      </c>
+      <c r="E220" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A221" s="1">
+        <v>221</v>
+      </c>
+      <c r="B221" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="C221" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="D221" s="2">
+        <v>2012</v>
+      </c>
+      <c r="E221" s="2" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A222" s="1">
+        <v>222</v>
+      </c>
+      <c r="B222" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="C222" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="D222" s="2">
+        <v>2015</v>
+      </c>
+      <c r="E222" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A223" s="1">
+        <v>223</v>
+      </c>
+      <c r="B223" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="C223" s="2" t="s">
+        <v>501</v>
+      </c>
+      <c r="D223" s="2">
+        <v>2012</v>
+      </c>
+      <c r="E223" s="2" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A224" s="1">
+        <v>224</v>
+      </c>
+      <c r="B224" s="2" t="s">
+        <v>502</v>
+      </c>
+      <c r="C224" s="2" t="s">
+        <v>503</v>
+      </c>
+      <c r="D224" s="2">
+        <v>2019</v>
+      </c>
+      <c r="E224" s="2" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A225" s="1">
+        <v>225</v>
+      </c>
+      <c r="B225" s="2" t="s">
+        <v>504</v>
+      </c>
+      <c r="C225" s="2" t="s">
+        <v>505</v>
+      </c>
+      <c r="D225" s="2">
+        <v>2017</v>
+      </c>
+      <c r="E225" s="2" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A226" s="1">
+        <v>226</v>
+      </c>
+      <c r="B226" s="2" t="s">
+        <v>507</v>
+      </c>
+      <c r="C226" s="2" t="s">
+        <v>508</v>
+      </c>
+      <c r="D226" s="2">
+        <v>2003</v>
+      </c>
+      <c r="E226" s="2" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A227" s="1">
+        <v>227</v>
+      </c>
+      <c r="B227" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="C227" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="D227" s="2">
+        <v>2019</v>
+      </c>
+      <c r="E227" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A228" s="1">
+        <v>228</v>
+      </c>
+      <c r="B228" s="2" t="s">
+        <v>511</v>
+      </c>
+      <c r="C228" s="2" t="s">
+        <v>512</v>
+      </c>
+      <c r="D228" s="2">
+        <v>2011</v>
+      </c>
+      <c r="E228" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A229" s="1">
+        <v>229</v>
+      </c>
+      <c r="B229" s="2" t="s">
+        <v>485</v>
+      </c>
+      <c r="C229" s="2" t="s">
+        <v>513</v>
+      </c>
+      <c r="D229" s="2">
+        <v>2018</v>
+      </c>
+      <c r="E229" s="2" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A230" s="1">
+        <v>230</v>
+      </c>
+      <c r="B230" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="C230" s="2" t="s">
+        <v>515</v>
+      </c>
+      <c r="D230" s="2">
+        <v>2015</v>
+      </c>
+      <c r="E230" s="2" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A231" s="1">
+        <v>231</v>
+      </c>
+      <c r="B231" s="2" t="s">
+        <v>516</v>
+      </c>
+      <c r="C231" s="2" t="s">
+        <v>517</v>
+      </c>
+      <c r="D231" s="2">
+        <v>2004</v>
+      </c>
+      <c r="E231" s="2" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A232" s="1">
+        <v>232</v>
+      </c>
+      <c r="B232" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="C232" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="D232" s="2">
+        <v>2015</v>
+      </c>
+      <c r="E232" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A233" s="1">
+        <v>233</v>
+      </c>
+      <c r="B233" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="C233" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="D233" s="2">
+        <v>2010</v>
+      </c>
+      <c r="E233" s="2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A234" s="1">
+        <v>234</v>
+      </c>
+      <c r="B234" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="C234" s="2" t="s">
+        <v>523</v>
+      </c>
+      <c r="D234" s="2">
+        <v>2017</v>
+      </c>
+      <c r="E234" s="2" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A235" s="1">
+        <v>235</v>
+      </c>
+      <c r="B235" s="2" t="s">
+        <v>524</v>
+      </c>
+      <c r="C235" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="D235" s="2">
+        <v>2019</v>
+      </c>
+      <c r="E235" s="2" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A236" s="1">
+        <v>236</v>
+      </c>
+      <c r="B236" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="C236" s="2" t="s">
+        <v>527</v>
+      </c>
+      <c r="D236" s="2">
+        <v>2019</v>
+      </c>
+      <c r="E236" s="2" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A237" s="1">
+        <v>237</v>
+      </c>
+      <c r="B237" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="C237" s="2" t="s">
+        <v>528</v>
+      </c>
+      <c r="D237" s="2">
+        <v>2013</v>
+      </c>
+      <c r="E237" s="2" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A238" s="1">
+        <v>238</v>
+      </c>
+      <c r="B238" s="2" t="s">
+        <v>529</v>
+      </c>
+      <c r="C238" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="D238" s="2">
+        <v>2013</v>
+      </c>
+      <c r="E238" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A239" s="1">
+        <v>239</v>
+      </c>
+      <c r="B239" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="C239" s="2" t="s">
+        <v>532</v>
+      </c>
+      <c r="D239" s="2">
+        <v>2016</v>
+      </c>
+      <c r="E239" s="2" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A240" s="1">
+        <v>240</v>
+      </c>
+      <c r="B240" s="2" t="s">
+        <v>533</v>
+      </c>
+      <c r="C240" s="2" t="s">
+        <v>534</v>
+      </c>
+      <c r="D240" s="2">
+        <v>2018</v>
+      </c>
+      <c r="E240" s="2" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A241" s="1">
+        <v>241</v>
+      </c>
+      <c r="B241" s="2" t="s">
+        <v>535</v>
+      </c>
+      <c r="C241" s="2" t="s">
+        <v>536</v>
+      </c>
+      <c r="D241" s="2">
+        <v>2003</v>
+      </c>
+      <c r="E241" s="2" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A242" s="1">
+        <v>242</v>
+      </c>
+      <c r="B242" s="2" t="s">
+        <v>538</v>
+      </c>
+      <c r="C242" s="2" t="s">
+        <v>539</v>
+      </c>
+      <c r="D242" s="2">
+        <v>2004</v>
+      </c>
+      <c r="E242" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A243" s="1">
+        <v>243</v>
+      </c>
+      <c r="B243" s="2" t="s">
+        <v>540</v>
+      </c>
+      <c r="C243" s="2" t="s">
+        <v>541</v>
+      </c>
+      <c r="D243" s="2">
+        <v>2012</v>
+      </c>
+      <c r="E243" s="2" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A244" s="1">
+        <v>244</v>
+      </c>
+      <c r="B244" s="2" t="s">
+        <v>542</v>
+      </c>
+      <c r="C244" s="2" t="s">
+        <v>543</v>
+      </c>
+      <c r="D244" s="2">
+        <v>2013</v>
+      </c>
+      <c r="E244" s="2" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A245" s="1">
+        <v>245</v>
+      </c>
+      <c r="B245" s="2" t="s">
+        <v>544</v>
+      </c>
+      <c r="C245" s="2" t="s">
+        <v>545</v>
+      </c>
+      <c r="D245" s="2">
+        <v>2018</v>
+      </c>
+      <c r="E245" s="2" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A246" s="1">
+        <v>246</v>
+      </c>
+      <c r="B246" s="2" t="s">
+        <v>547</v>
+      </c>
+      <c r="C246" s="2" t="s">
+        <v>548</v>
+      </c>
+      <c r="D246" s="2">
+        <v>2012</v>
+      </c>
+      <c r="E246" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A247" s="1">
+        <v>247</v>
+      </c>
+      <c r="B247" s="2" t="s">
+        <v>549</v>
+      </c>
+      <c r="C247" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="D247" s="2">
+        <v>2017</v>
+      </c>
+      <c r="E247" s="2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A248" s="1">
+        <v>248</v>
+      </c>
+      <c r="B248" s="2" t="s">
+        <v>551</v>
+      </c>
+      <c r="C248" s="2" t="s">
+        <v>552</v>
+      </c>
+      <c r="D248" s="2">
+        <v>2016</v>
+      </c>
+      <c r="E248" s="2" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A249" s="1">
+        <v>249</v>
+      </c>
+      <c r="B249" s="2" t="s">
+        <v>553</v>
+      </c>
+      <c r="C249" s="2" t="s">
+        <v>554</v>
+      </c>
+      <c r="D249" s="2">
+        <v>2007</v>
+      </c>
+      <c r="E249" s="2" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A250" s="1">
+        <v>250</v>
+      </c>
+      <c r="B250" s="2" t="s">
+        <v>555</v>
+      </c>
+      <c r="C250" s="2" t="s">
+        <v>556</v>
+      </c>
+      <c r="D250" s="2">
+        <v>2008</v>
+      </c>
+      <c r="E250" s="2" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A251" s="1">
+        <v>251</v>
+      </c>
+      <c r="B251" s="2" t="s">
+        <v>557</v>
+      </c>
+      <c r="C251" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="D251" s="2">
+        <v>2016</v>
+      </c>
+      <c r="E251" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A252" s="1">
+        <v>252</v>
+      </c>
+      <c r="B252" s="2" t="s">
+        <v>559</v>
+      </c>
+      <c r="C252" s="2" t="s">
+        <v>560</v>
+      </c>
+      <c r="D252" s="2">
+        <v>2016</v>
+      </c>
+      <c r="E252" s="2" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A253" s="1">
+        <v>253</v>
+      </c>
+      <c r="B253" s="2" t="s">
+        <v>561</v>
+      </c>
+      <c r="C253" s="2" t="s">
+        <v>562</v>
+      </c>
+      <c r="D253" s="2">
+        <v>2016</v>
+      </c>
+      <c r="E253" s="2" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A254" s="1">
+        <v>254</v>
+      </c>
+      <c r="B254" s="2" t="s">
+        <v>563</v>
+      </c>
+      <c r="C254" s="2" t="s">
+        <v>564</v>
+      </c>
+      <c r="D254" s="2">
+        <v>2018</v>
+      </c>
+      <c r="E254" s="2" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A255" s="1">
+        <v>255</v>
+      </c>
+      <c r="B255" s="2" t="s">
+        <v>565</v>
+      </c>
+      <c r="C255" s="2" t="s">
+        <v>566</v>
+      </c>
+      <c r="D255" s="2">
+        <v>2016</v>
+      </c>
+      <c r="E255" s="2" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A256" s="1">
+        <v>256</v>
+      </c>
+      <c r="B256" s="2" t="s">
+        <v>568</v>
+      </c>
+      <c r="C256" s="2" t="s">
+        <v>569</v>
+      </c>
+      <c r="D256" s="2">
+        <v>2016</v>
+      </c>
+      <c r="E256" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A257" s="1">
+        <v>257</v>
+      </c>
+      <c r="B257" s="2" t="s">
+        <v>570</v>
+      </c>
+      <c r="C257" s="2" t="s">
+        <v>571</v>
+      </c>
+      <c r="D257" s="2">
+        <v>2017</v>
+      </c>
+      <c r="E257" s="2" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A258" s="1">
+        <v>258</v>
+      </c>
+      <c r="B258" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C258" s="2" t="s">
+        <v>572</v>
+      </c>
+      <c r="D258" s="2">
+        <v>2015</v>
+      </c>
+      <c r="E258" s="2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A259" s="1">
+        <v>259</v>
+      </c>
+      <c r="B259" s="2" t="s">
+        <v>573</v>
+      </c>
+      <c r="C259" s="2" t="s">
+        <v>574</v>
+      </c>
+      <c r="D259" s="2">
+        <v>2017</v>
+      </c>
+      <c r="E259" s="2" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A260" s="1">
+        <v>260</v>
+      </c>
+      <c r="B260" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="C260" s="2" t="s">
+        <v>576</v>
+      </c>
+      <c r="D260" s="2">
+        <v>2017</v>
+      </c>
+      <c r="E260" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A261" s="1">
+        <v>261</v>
+      </c>
+      <c r="B261" s="2" t="s">
+        <v>549</v>
+      </c>
+      <c r="C261" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="D261" s="2">
+        <v>2017</v>
+      </c>
+      <c r="E261" s="2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A262" s="1">
+        <v>262</v>
+      </c>
+      <c r="B262" s="2" t="s">
+        <v>579</v>
+      </c>
+      <c r="C262" s="2" t="s">
+        <v>580</v>
+      </c>
+      <c r="D262" s="2">
+        <v>2016</v>
+      </c>
+      <c r="E262" s="2" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A263" s="1">
+        <v>263</v>
+      </c>
+      <c r="B263" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="C263" s="2" t="s">
+        <v>582</v>
+      </c>
+      <c r="D263" s="2">
+        <v>2014</v>
+      </c>
+      <c r="E263" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A264" s="1">
+        <v>264</v>
+      </c>
+      <c r="B264" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="C264" s="2" t="s">
+        <v>584</v>
+      </c>
+      <c r="D264" s="2">
+        <v>2019</v>
+      </c>
+      <c r="E264" s="2" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A265" s="1">
+        <v>265</v>
+      </c>
+      <c r="B265" s="2" t="s">
+        <v>586</v>
+      </c>
+      <c r="C265" s="2" t="s">
+        <v>587</v>
+      </c>
+      <c r="D265" s="2">
+        <v>2014</v>
+      </c>
+      <c r="E265" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A266" s="1">
+        <v>266</v>
+      </c>
+      <c r="B266" s="2" t="s">
+        <v>588</v>
+      </c>
+      <c r="C266" s="2" t="s">
+        <v>589</v>
+      </c>
+      <c r="D266" s="2">
+        <v>2008</v>
+      </c>
+      <c r="E266" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A267" s="1">
+        <v>267</v>
+      </c>
+      <c r="B267" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="C267" s="2" t="s">
+        <v>590</v>
+      </c>
+      <c r="D267" s="2">
+        <v>2010</v>
+      </c>
+      <c r="E267" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A268" s="1">
+        <v>268</v>
+      </c>
+      <c r="B268" s="2" t="s">
+        <v>591</v>
+      </c>
+      <c r="C268" s="2" t="s">
+        <v>592</v>
+      </c>
+      <c r="D268" s="2">
+        <v>2013</v>
+      </c>
+      <c r="E268" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A269" s="1">
+        <v>269</v>
+      </c>
+      <c r="B269" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="C269" s="2" t="s">
+        <v>593</v>
+      </c>
+      <c r="D269" s="2">
+        <v>2016</v>
+      </c>
+      <c r="E269" s="2" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A270" s="1">
+        <v>270</v>
+      </c>
+      <c r="B270" s="2" t="s">
+        <v>594</v>
+      </c>
+      <c r="C270" s="2" t="s">
+        <v>595</v>
+      </c>
+      <c r="D270" s="2">
+        <v>2015</v>
+      </c>
+      <c r="E270" s="2" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A271" s="1">
+        <v>271</v>
+      </c>
+      <c r="B271" s="2" t="s">
+        <v>596</v>
+      </c>
+      <c r="C271" s="2" t="s">
+        <v>597</v>
+      </c>
+      <c r="D271" s="2">
+        <v>2016</v>
+      </c>
+      <c r="E271" s="2" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A272" s="1">
+        <v>272</v>
+      </c>
+      <c r="B272" s="2" t="s">
+        <v>598</v>
+      </c>
+      <c r="C272" s="2" t="s">
+        <v>599</v>
+      </c>
+      <c r="D272" s="2">
+        <v>2016</v>
+      </c>
+      <c r="E272" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A273" s="1">
+        <v>273</v>
+      </c>
+      <c r="B273" s="2" t="s">
+        <v>600</v>
+      </c>
+      <c r="C273" s="2" t="s">
+        <v>601</v>
+      </c>
+      <c r="D273" s="2">
+        <v>2006</v>
+      </c>
+      <c r="E273" s="2" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="274" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A274" s="1">
+        <v>274</v>
+      </c>
+      <c r="B274" s="2" t="s">
+        <v>602</v>
+      </c>
+      <c r="C274" s="2" t="s">
+        <v>603</v>
+      </c>
+      <c r="D274" s="2">
+        <v>2016</v>
+      </c>
+      <c r="E274" s="2" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="275" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A275" s="1">
+        <v>275</v>
+      </c>
+      <c r="B275" s="2" t="s">
+        <v>604</v>
+      </c>
+      <c r="C275" s="2" t="s">
+        <v>605</v>
+      </c>
+      <c r="D275" s="2">
+        <v>2014</v>
+      </c>
+      <c r="E275" s="2" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="276" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A276" s="1">
+        <v>276</v>
+      </c>
+      <c r="B276" s="2" t="s">
+        <v>606</v>
+      </c>
+      <c r="C276" s="2" t="s">
+        <v>607</v>
+      </c>
+      <c r="D276" s="2">
+        <v>2009</v>
+      </c>
+      <c r="E276" s="2" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="277" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A277" s="1">
+        <v>277</v>
+      </c>
+      <c r="B277" s="2" t="s">
+        <v>608</v>
+      </c>
+      <c r="C277" s="2" t="s">
+        <v>609</v>
+      </c>
+      <c r="D277" s="2">
+        <v>2010</v>
+      </c>
+      <c r="E277" s="2" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="278" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A278" s="1">
+        <v>278</v>
+      </c>
+      <c r="B278" s="2" t="s">
+        <v>610</v>
+      </c>
+      <c r="C278" s="2" t="s">
+        <v>611</v>
+      </c>
+      <c r="D278" s="2">
+        <v>1994</v>
+      </c>
+      <c r="E278" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="279" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A279" s="1">
+        <v>279</v>
+      </c>
+      <c r="B279" s="2" t="s">
+        <v>507</v>
+      </c>
+      <c r="C279" s="2" t="s">
+        <v>612</v>
+      </c>
+      <c r="D279" s="2">
+        <v>2003</v>
+      </c>
+      <c r="E279" s="2" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="280" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A280" s="1">
+        <v>280</v>
+      </c>
+      <c r="B280" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C280" s="2" t="s">
+        <v>613</v>
+      </c>
+      <c r="D280" s="2">
+        <v>2015</v>
+      </c>
+      <c r="E280" s="2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="281" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A281" s="1">
+        <v>281</v>
+      </c>
+      <c r="B281" s="2" t="s">
+        <v>614</v>
+      </c>
+      <c r="C281" s="2" t="s">
+        <v>615</v>
+      </c>
+      <c r="D281" s="2">
+        <v>2005</v>
+      </c>
+      <c r="E281" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="282" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A282" s="1">
+        <v>282</v>
+      </c>
+      <c r="B282" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="C282" s="2" t="s">
+        <v>616</v>
+      </c>
+      <c r="D282" s="2">
+        <v>2013</v>
+      </c>
+      <c r="E282" s="2" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="283" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A283" s="1">
+        <v>283</v>
+      </c>
+      <c r="B283" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C283" s="2" t="s">
+        <v>617</v>
+      </c>
+      <c r="D283" s="2">
+        <v>1995</v>
+      </c>
+      <c r="E283" s="2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="284" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A284" s="1">
+        <v>284</v>
+      </c>
+      <c r="B284" s="2" t="s">
+        <v>618</v>
+      </c>
+      <c r="C284" s="2" t="s">
+        <v>619</v>
+      </c>
+      <c r="D284" s="2">
+        <v>2017</v>
+      </c>
+      <c r="E284" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="285" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A285" s="1">
+        <v>285</v>
+      </c>
+      <c r="B285" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="C285" s="2" t="s">
+        <v>620</v>
+      </c>
+      <c r="D285" s="2">
+        <v>2012</v>
+      </c>
+      <c r="E285" s="2" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="286" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A286" s="1">
+        <v>286</v>
+      </c>
+      <c r="B286" s="2" t="s">
+        <v>621</v>
+      </c>
+      <c r="C286" s="2" t="s">
+        <v>622</v>
+      </c>
+      <c r="D286" s="2">
+        <v>2018</v>
+      </c>
+      <c r="E286" s="2" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="287" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A287" s="1">
+        <v>287</v>
+      </c>
+      <c r="B287" s="2" t="s">
+        <v>623</v>
+      </c>
+      <c r="C287" s="2" t="s">
+        <v>624</v>
+      </c>
+      <c r="D287" s="2">
+        <v>2014</v>
+      </c>
+      <c r="E287" s="2" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="288" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A288" s="1">
+        <v>288</v>
+      </c>
+      <c r="B288" s="2" t="s">
+        <v>625</v>
+      </c>
+      <c r="C288" s="2" t="s">
+        <v>626</v>
+      </c>
+      <c r="D288" s="2">
+        <v>2021</v>
+      </c>
+      <c r="E288" s="2" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="289" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A289" s="1">
+        <v>289</v>
+      </c>
+      <c r="B289" s="2" t="s">
+        <v>627</v>
+      </c>
+      <c r="C289" s="2" t="s">
+        <v>628</v>
+      </c>
+      <c r="D289" s="2">
+        <v>2018</v>
+      </c>
+      <c r="E289" s="2" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="290" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A290" s="1">
+        <v>290</v>
+      </c>
+      <c r="B290" s="2" t="s">
+        <v>629</v>
+      </c>
+      <c r="C290" s="2" t="s">
+        <v>630</v>
+      </c>
+      <c r="D290" s="2">
+        <v>2017</v>
+      </c>
+      <c r="E290" s="2" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="291" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A291" s="1">
+        <v>291</v>
+      </c>
+      <c r="B291" s="2" t="s">
+        <v>631</v>
+      </c>
+      <c r="C291" s="2" t="s">
+        <v>632</v>
+      </c>
+      <c r="D291" s="2">
+        <v>2020</v>
+      </c>
+      <c r="E291" s="2" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="292" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A292" s="1">
+        <v>292</v>
+      </c>
+      <c r="B292" s="2" t="s">
+        <v>633</v>
+      </c>
+      <c r="C292" s="2" t="s">
+        <v>634</v>
+      </c>
+      <c r="D292" s="2">
+        <v>2016</v>
+      </c>
+      <c r="E292" s="2" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="293" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A293" s="1">
+        <v>293</v>
+      </c>
+      <c r="B293" s="2" t="s">
+        <v>635</v>
+      </c>
+      <c r="C293" s="2" t="s">
+        <v>636</v>
+      </c>
+      <c r="D293" s="2">
+        <v>1967</v>
+      </c>
+      <c r="E293" s="2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="294" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A294" s="1">
+        <v>294</v>
+      </c>
+      <c r="B294" s="2" t="s">
+        <v>637</v>
+      </c>
+      <c r="C294" s="2" t="s">
+        <v>638</v>
+      </c>
+      <c r="D294" s="2">
+        <v>2015</v>
+      </c>
+      <c r="E294" s="2" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="295" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A295" s="1">
+        <v>295</v>
+      </c>
+      <c r="B295" s="2" t="s">
+        <v>639</v>
+      </c>
+      <c r="C295" s="2" t="s">
+        <v>640</v>
+      </c>
+      <c r="D295" s="2">
+        <v>2010</v>
+      </c>
+      <c r="E295" s="2" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="296" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A296" s="1">
+        <v>296</v>
+      </c>
+      <c r="B296" s="2" t="s">
+        <v>641</v>
+      </c>
+      <c r="C296" s="2" t="s">
+        <v>642</v>
+      </c>
+      <c r="D296" s="2">
+        <v>1991</v>
+      </c>
+      <c r="E296" s="2" t="s">
+        <v>481</v>
+      </c>
+    </row>
   </sheetData>
+  <conditionalFormatting sqref="B1:B1048576">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>